--- a/DataTable/Type.xlsx
+++ b/DataTable/Type.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18375" tabRatio="454"/>
+    <workbookView windowWidth="27930" windowHeight="12975" tabRatio="454"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1367,9 +1367,9 @@
   <dimension ref="A1:J314"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L217" sqref="L217"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2104,7 +2104,7 @@
         <v>80</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
